--- a/nodes_source_analyses/energy/energy_flexibility_mv_batteries_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_flexibility_mv_batteries_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE8DE2-4160-F842-AE5A-393F2E74A4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2F6055-0DBD-FA40-8BD8-5EC7BFC1F26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>Source</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>https://socialunderground.com/2018/01/elon-musk-tesla-50-million-bet-battery/</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +657,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1165,7 +1174,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1439,6 +1448,12 @@
     <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,12 +1481,7 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2404,8 +2414,8 @@
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2430,28 +2440,28 @@
       <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="79"/>
       <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
     </row>
@@ -2850,7 +2860,9 @@
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="103"/>
-      <c r="I30" s="138"/>
+      <c r="I30" s="162" t="s">
+        <v>103</v>
+      </c>
       <c r="J30" s="93"/>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
@@ -3300,7 +3312,7 @@
       <c r="F14" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="160">
+      <c r="G14" s="151">
         <v>56000000</v>
       </c>
       <c r="H14" s="45"/>
@@ -3375,7 +3387,7 @@
       <c r="F18" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="161">
+      <c r="G18" s="152">
         <v>0.125</v>
       </c>
       <c r="H18" s="45"/>
